--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Профиль обучения</t>
   </si>
@@ -27,30 +27,6 @@
   </si>
   <si>
     <t>Университеты</t>
-  </si>
-  <si>
-    <t>Лингвистика</t>
-  </si>
-  <si>
-    <t>Воронежский Литературно-Переводческий Университет;</t>
-  </si>
-  <si>
-    <t>Физика</t>
-  </si>
-  <si>
-    <t>Московский Придуманный Институт;Московский Выдуманный Университет;</t>
-  </si>
-  <si>
-    <t>Математика</t>
-  </si>
-  <si>
-    <t>Казанский Университет Вычислений;</t>
-  </si>
-  <si>
-    <t>Медицина</t>
-  </si>
-  <si>
-    <t>Самарский Медицинский Институт;Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;</t>
   </si>
 </sst>
 </file>
@@ -101,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -124,74 +100,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4.539999961853027</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4.329999923706055</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Профиль обучения</t>
   </si>
@@ -27,6 +27,30 @@
   </si>
   <si>
     <t>Университеты</t>
+  </si>
+  <si>
+    <t>Медицина</t>
+  </si>
+  <si>
+    <t>Самарский Медицинский Институт;Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;</t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Казанский Университет Вычислений;</t>
+  </si>
+  <si>
+    <t>Лингвистика</t>
+  </si>
+  <si>
+    <t>Воронежский Литературно-Переводческий Университет;</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Московский Придуманный Институт;Московский Выдуманный Университет;</t>
   </si>
 </sst>
 </file>
@@ -77,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -100,6 +124,74 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.329999923706055</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.539999961853027</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
